--- a/Участок ремонта форм/Формокомплекты/Тестовые ф-ты.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Тестовые ф-ты.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Исполнитель:</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>Казацкая рада 0,2 л.</t>
+  </si>
+  <si>
+    <t>Аквадив 0,35 л.</t>
+  </si>
+  <si>
+    <t>Отработавший ресурс формокомплект</t>
+  </si>
+  <si>
+    <t>"Аквадив"</t>
+  </si>
+  <si>
+    <t>Фляга 0,2 л.</t>
+  </si>
+  <si>
+    <t>Россия "Национальные алкогольные традиции"</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-419]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +242,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Perpetua"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +270,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.24994659260841701"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,6 +408,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -385,7 +448,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -425,28 +488,48 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -460,10 +543,11 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-419]d\ mmm\ yy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-419]d\ mmm\ yy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -731,8 +815,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Проект1" displayName="Проект1" ref="B1:C23" totalsRowShown="0">
   <autoFilter ref="B1:C23"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Тестовый формокомплект" dataDxfId="0"/>
-    <tableColumn id="3" name="Собственник" dataDxfId="1"/>
+    <tableColumn id="2" name="Тестовый формокомплект" dataDxfId="1"/>
+    <tableColumn id="3" name="Собственник" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Список дел для проектов" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1127,203 +1211,224 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.75" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="45.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A23" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1332,10 +1437,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1344,10 +1449,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1356,10 +1461,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1368,10 +1473,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1380,10 +1485,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1392,27 +1497,29 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="27" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В столбце под этим заголовком введите этап проекта" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В столбце под этим заголовком введите срок выполнения" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В столбце под этим заголовком введите этап проекта" sqref="B1 E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="В столбце под этим заголовком введите срок выполнения" sqref="C1 F1"/>
   </dataValidations>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.51181102362204722" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1461,29 +1568,29 @@
         <v>0</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -1506,7 +1613,7 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1516,7 +1623,7 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1526,7 +1633,7 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1536,7 +1643,7 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1546,7 +1653,7 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1556,7 +1663,7 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1566,7 +1673,7 @@
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1576,7 +1683,7 @@
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1586,7 +1693,7 @@
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="5"/>
     </row>
   </sheetData>
@@ -1669,29 +1776,29 @@
         <v>0</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
@@ -1714,7 +1821,7 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1724,7 +1831,7 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1734,7 +1841,7 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1744,7 +1851,7 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1754,7 +1861,7 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1764,7 +1871,7 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1774,7 +1881,7 @@
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1784,7 +1891,7 @@
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1794,7 +1901,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="7"/>
     </row>
   </sheetData>
